--- a/Data_Penjualan_Dengan_ID_Pelanggan.xlsx
+++ b/Data_Penjualan_Dengan_ID_Pelanggan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shindy/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B11DD76D-16E2-1A4F-9AE5-3F94FFF2EBFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F8CA485-1036-45EB-B21A-79F6148DFE8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8294" uniqueCount="1187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8854" uniqueCount="1214">
   <si>
     <t>Nomor Invoice</t>
   </si>
@@ -3581,6 +3581,87 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>102/MNA/IN/I/2022</t>
+  </si>
+  <si>
+    <t>107/MNA/IN/I/2022</t>
+  </si>
+  <si>
+    <t>350/MNA/IN/XII/2022</t>
+  </si>
+  <si>
+    <t>337/MNA/IN/XII/2022</t>
+  </si>
+  <si>
+    <t>326/MNA/IN/XII/2022</t>
+  </si>
+  <si>
+    <t>351/MNA/IN/XII/2022</t>
+  </si>
+  <si>
+    <t>373/MNA/IN/VIII/2022</t>
+  </si>
+  <si>
+    <t>374/MNA/IN/VIII/2022</t>
+  </si>
+  <si>
+    <t>363/MNA/IN/VII/2022</t>
+  </si>
+  <si>
+    <t>365/MNA/IN/VII/2022</t>
+  </si>
+  <si>
+    <t>364/MNA/IN/VII/2022</t>
+  </si>
+  <si>
+    <t>404/MNA/IN/X/2023</t>
+  </si>
+  <si>
+    <t>Meja Makan DT 01</t>
+  </si>
+  <si>
+    <t>Kursi Lounge LC 515 Wood</t>
+  </si>
+  <si>
+    <t>405/MNA/IN/X/2023</t>
+  </si>
+  <si>
+    <t>676/MNA/IN/XII/2023</t>
+  </si>
+  <si>
+    <t>708/MNA/IN/X/2023</t>
+  </si>
+  <si>
+    <t>708/MNA/IN/VIII/2023</t>
+  </si>
+  <si>
+    <t>712/MNA/IN/VIII/2023</t>
+  </si>
+  <si>
+    <t>711/MNA/IN/VIII/2023</t>
+  </si>
+  <si>
+    <t>702/MNA/IN/VIII/2023</t>
+  </si>
+  <si>
+    <t>768/MNA/IN/VI/2023</t>
+  </si>
+  <si>
+    <t>821/MNA/IN/II/2023</t>
+  </si>
+  <si>
+    <t>824/MNA/IN/II/2023</t>
+  </si>
+  <si>
+    <t>819/MNA/IN/II/2023</t>
+  </si>
+  <si>
+    <t>815/MNA/IN/I/2023</t>
+  </si>
+  <si>
+    <t>809/MNA/IN/I/2023</t>
   </si>
 </sst>
 </file>
@@ -3590,7 +3671,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3606,6 +3687,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -3615,7 +3702,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -3638,11 +3725,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -3656,6 +3758,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3961,21 +4072,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W589"/>
+  <dimension ref="A1:W629"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C439" sqref="C439"/>
+    <sheetView tabSelected="1" topLeftCell="A621" workbookViewId="0">
+      <selection activeCell="D625" sqref="D625"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.1640625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="23.1640625" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="17" max="17" width="19.6640625" customWidth="1"/>
+    <col min="17" max="17" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4046,7 +4157,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -4105,7 +4216,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -4164,7 +4275,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -4223,7 +4334,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -4282,7 +4393,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -4341,7 +4452,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -4400,7 +4511,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -4459,7 +4570,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -4518,7 +4629,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -4577,7 +4688,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -4636,7 +4747,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -4695,7 +4806,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -4754,7 +4865,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -4813,7 +4924,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -4872,7 +4983,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -4931,7 +5042,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -4990,7 +5101,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>31</v>
       </c>
@@ -5049,7 +5160,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -5108,7 +5219,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -5167,7 +5278,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -5226,7 +5337,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -5285,7 +5396,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>35</v>
       </c>
@@ -5344,7 +5455,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>36</v>
       </c>
@@ -5403,7 +5514,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -5462,7 +5573,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -5521,7 +5632,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>36</v>
       </c>
@@ -5580,7 +5691,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -5639,7 +5750,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>36</v>
       </c>
@@ -5698,7 +5809,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -5757,7 +5868,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>36</v>
       </c>
@@ -5816,7 +5927,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -5875,7 +5986,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>36</v>
       </c>
@@ -5934,7 +6045,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>36</v>
       </c>
@@ -5993,7 +6104,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>36</v>
       </c>
@@ -6052,7 +6163,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -6111,7 +6222,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -6170,7 +6281,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -6229,7 +6340,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>36</v>
       </c>
@@ -6288,7 +6399,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>36</v>
       </c>
@@ -6347,7 +6458,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>36</v>
       </c>
@@ -6406,7 +6517,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>36</v>
       </c>
@@ -6465,7 +6576,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>37</v>
       </c>
@@ -6524,7 +6635,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>38</v>
       </c>
@@ -6583,7 +6694,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>39</v>
       </c>
@@ -6642,7 +6753,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>40</v>
       </c>
@@ -6701,7 +6812,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>41</v>
       </c>
@@ -6760,7 +6871,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>41</v>
       </c>
@@ -6819,7 +6930,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>42</v>
       </c>
@@ -6878,7 +6989,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>43</v>
       </c>
@@ -6937,7 +7048,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>44</v>
       </c>
@@ -6996,7 +7107,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>45</v>
       </c>
@@ -7055,7 +7166,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>46</v>
       </c>
@@ -7114,7 +7225,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>47</v>
       </c>
@@ -7173,7 +7284,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>48</v>
       </c>
@@ -7232,7 +7343,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>49</v>
       </c>
@@ -7291,7 +7402,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>40</v>
       </c>
@@ -7350,7 +7461,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>40</v>
       </c>
@@ -7409,7 +7520,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>40</v>
       </c>
@@ -7468,7 +7579,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>40</v>
       </c>
@@ -7527,7 +7638,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>50</v>
       </c>
@@ -7586,7 +7697,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>51</v>
       </c>
@@ -7645,7 +7756,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>52</v>
       </c>
@@ -7704,7 +7815,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>53</v>
       </c>
@@ -7763,7 +7874,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>54</v>
       </c>
@@ -7822,7 +7933,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>54</v>
       </c>
@@ -7881,7 +7992,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>54</v>
       </c>
@@ -7940,7 +8051,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>54</v>
       </c>
@@ -7999,7 +8110,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>55</v>
       </c>
@@ -8058,7 +8169,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>55</v>
       </c>
@@ -8117,7 +8228,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>56</v>
       </c>
@@ -8176,7 +8287,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>57</v>
       </c>
@@ -8235,7 +8346,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>58</v>
       </c>
@@ -8294,7 +8405,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>59</v>
       </c>
@@ -8353,7 +8464,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>60</v>
       </c>
@@ -8412,7 +8523,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>61</v>
       </c>
@@ -8471,7 +8582,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>62</v>
       </c>
@@ -8530,7 +8641,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>63</v>
       </c>
@@ -8589,7 +8700,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>64</v>
       </c>
@@ -8648,7 +8759,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>65</v>
       </c>
@@ -8707,7 +8818,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>66</v>
       </c>
@@ -8766,7 +8877,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>66</v>
       </c>
@@ -8825,7 +8936,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>67</v>
       </c>
@@ -8884,7 +8995,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>67</v>
       </c>
@@ -8943,7 +9054,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>68</v>
       </c>
@@ -9002,7 +9113,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>69</v>
       </c>
@@ -9061,7 +9172,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>69</v>
       </c>
@@ -9120,7 +9231,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>69</v>
       </c>
@@ -9179,7 +9290,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>70</v>
       </c>
@@ -9238,7 +9349,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>71</v>
       </c>
@@ -9297,7 +9408,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>71</v>
       </c>
@@ -9356,7 +9467,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>72</v>
       </c>
@@ -9415,7 +9526,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>72</v>
       </c>
@@ -9474,7 +9585,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>73</v>
       </c>
@@ -9533,7 +9644,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>74</v>
       </c>
@@ -9592,7 +9703,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>75</v>
       </c>
@@ -9651,7 +9762,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>76</v>
       </c>
@@ -9710,7 +9821,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>76</v>
       </c>
@@ -9769,7 +9880,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>76</v>
       </c>
@@ -9828,7 +9939,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>77</v>
       </c>
@@ -9887,7 +9998,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>78</v>
       </c>
@@ -9946,7 +10057,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>79</v>
       </c>
@@ -10005,7 +10116,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>80</v>
       </c>
@@ -10064,7 +10175,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>81</v>
       </c>
@@ -10123,7 +10234,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>82</v>
       </c>
@@ -10182,7 +10293,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>83</v>
       </c>
@@ -10241,7 +10352,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>84</v>
       </c>
@@ -10300,7 +10411,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>85</v>
       </c>
@@ -10359,7 +10470,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>85</v>
       </c>
@@ -10418,7 +10529,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>85</v>
       </c>
@@ -10477,7 +10588,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>85</v>
       </c>
@@ -10536,7 +10647,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>86</v>
       </c>
@@ -10595,7 +10706,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>86</v>
       </c>
@@ -10654,7 +10765,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>86</v>
       </c>
@@ -10713,7 +10824,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>87</v>
       </c>
@@ -10772,7 +10883,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>87</v>
       </c>
@@ -10831,7 +10942,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>87</v>
       </c>
@@ -10890,7 +11001,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>88</v>
       </c>
@@ -10949,7 +11060,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>89</v>
       </c>
@@ -11008,7 +11119,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>90</v>
       </c>
@@ -11067,7 +11178,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>91</v>
       </c>
@@ -11126,7 +11237,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>92</v>
       </c>
@@ -11185,7 +11296,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>92</v>
       </c>
@@ -11244,7 +11355,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>93</v>
       </c>
@@ -11303,7 +11414,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>94</v>
       </c>
@@ -11362,7 +11473,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>95</v>
       </c>
@@ -11421,7 +11532,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>96</v>
       </c>
@@ -11480,7 +11591,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>97</v>
       </c>
@@ -11539,7 +11650,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="129" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>98</v>
       </c>
@@ -11598,7 +11709,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="130" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>98</v>
       </c>
@@ -11657,7 +11768,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="131" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>98</v>
       </c>
@@ -11716,7 +11827,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="132" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>99</v>
       </c>
@@ -11775,7 +11886,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="133" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>100</v>
       </c>
@@ -11834,7 +11945,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="134" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>101</v>
       </c>
@@ -11893,7 +12004,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="135" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>102</v>
       </c>
@@ -11952,7 +12063,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="136" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>103</v>
       </c>
@@ -12011,7 +12122,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="137" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>104</v>
       </c>
@@ -12070,7 +12181,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="138" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>105</v>
       </c>
@@ -12129,7 +12240,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="139" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>105</v>
       </c>
@@ -12188,7 +12299,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="140" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>106</v>
       </c>
@@ -12247,7 +12358,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="141" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>107</v>
       </c>
@@ -12306,7 +12417,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="142" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>108</v>
       </c>
@@ -12368,7 +12479,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="143" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>108</v>
       </c>
@@ -12427,7 +12538,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="144" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>109</v>
       </c>
@@ -12486,7 +12597,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>110</v>
       </c>
@@ -12545,7 +12656,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>111</v>
       </c>
@@ -12604,7 +12715,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>112</v>
       </c>
@@ -12663,7 +12774,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>113</v>
       </c>
@@ -12722,7 +12833,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>114</v>
       </c>
@@ -12781,7 +12892,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>115</v>
       </c>
@@ -12840,7 +12951,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>116</v>
       </c>
@@ -12899,7 +13010,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>116</v>
       </c>
@@ -12958,7 +13069,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>116</v>
       </c>
@@ -13017,7 +13128,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>116</v>
       </c>
@@ -13076,7 +13187,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>117</v>
       </c>
@@ -13135,7 +13246,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>117</v>
       </c>
@@ -13194,7 +13305,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>117</v>
       </c>
@@ -13253,7 +13364,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="158" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>118</v>
       </c>
@@ -13312,7 +13423,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>119</v>
       </c>
@@ -13371,7 +13482,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="160" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>120</v>
       </c>
@@ -13430,7 +13541,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="161" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>120</v>
       </c>
@@ -13489,7 +13600,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="162" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>120</v>
       </c>
@@ -13548,7 +13659,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="163" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>120</v>
       </c>
@@ -13607,7 +13718,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="164" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>120</v>
       </c>
@@ -13666,7 +13777,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="165" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>120</v>
       </c>
@@ -13725,7 +13836,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="166" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>120</v>
       </c>
@@ -13784,7 +13895,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="167" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>120</v>
       </c>
@@ -13843,7 +13954,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="168" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>120</v>
       </c>
@@ -13902,7 +14013,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="169" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>120</v>
       </c>
@@ -13961,7 +14072,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="170" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>121</v>
       </c>
@@ -14020,7 +14131,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="171" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>122</v>
       </c>
@@ -14079,7 +14190,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="172" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>123</v>
       </c>
@@ -14138,7 +14249,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="173" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>124</v>
       </c>
@@ -14197,7 +14308,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="174" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>125</v>
       </c>
@@ -14256,7 +14367,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="175" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>126</v>
       </c>
@@ -14315,7 +14426,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="176" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>127</v>
       </c>
@@ -14374,7 +14485,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="177" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>128</v>
       </c>
@@ -14433,7 +14544,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="178" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>129</v>
       </c>
@@ -14492,7 +14603,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="179" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>130</v>
       </c>
@@ -14551,7 +14662,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="180" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>131</v>
       </c>
@@ -14610,7 +14721,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="181" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>132</v>
       </c>
@@ -14669,7 +14780,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="182" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>133</v>
       </c>
@@ -14728,7 +14839,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="183" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>134</v>
       </c>
@@ -14787,7 +14898,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="184" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>134</v>
       </c>
@@ -14846,7 +14957,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="185" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>135</v>
       </c>
@@ -14905,7 +15016,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="186" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>136</v>
       </c>
@@ -14964,7 +15075,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="187" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>137</v>
       </c>
@@ -15023,7 +15134,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="188" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>137</v>
       </c>
@@ -15082,7 +15193,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="189" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>137</v>
       </c>
@@ -15141,7 +15252,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="190" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>137</v>
       </c>
@@ -15200,7 +15311,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="191" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>137</v>
       </c>
@@ -15259,7 +15370,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="192" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>137</v>
       </c>
@@ -15318,7 +15429,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="193" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>137</v>
       </c>
@@ -15377,7 +15488,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="194" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>137</v>
       </c>
@@ -15436,7 +15547,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="195" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>137</v>
       </c>
@@ -15495,7 +15606,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="196" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>137</v>
       </c>
@@ -15554,7 +15665,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="197" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>137</v>
       </c>
@@ -15613,7 +15724,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="198" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>137</v>
       </c>
@@ -15672,7 +15783,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="199" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>137</v>
       </c>
@@ -15731,7 +15842,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="200" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>137</v>
       </c>
@@ -15790,7 +15901,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="201" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>137</v>
       </c>
@@ -15849,7 +15960,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="202" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>137</v>
       </c>
@@ -15908,7 +16019,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="203" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>137</v>
       </c>
@@ -15967,7 +16078,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="204" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>137</v>
       </c>
@@ -16026,7 +16137,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="205" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>137</v>
       </c>
@@ -16085,7 +16196,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="206" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>137</v>
       </c>
@@ -16144,7 +16255,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="207" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>137</v>
       </c>
@@ -16203,7 +16314,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="208" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>137</v>
       </c>
@@ -16262,7 +16373,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="209" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>138</v>
       </c>
@@ -16321,7 +16432,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="210" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>138</v>
       </c>
@@ -16380,7 +16491,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="211" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>138</v>
       </c>
@@ -16439,7 +16550,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="212" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>139</v>
       </c>
@@ -16498,7 +16609,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="213" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>139</v>
       </c>
@@ -16557,7 +16668,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="214" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>139</v>
       </c>
@@ -16616,7 +16727,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="215" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>139</v>
       </c>
@@ -16675,7 +16786,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="216" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>139</v>
       </c>
@@ -16734,7 +16845,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="217" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>139</v>
       </c>
@@ -16793,7 +16904,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="218" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>139</v>
       </c>
@@ -16852,7 +16963,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="219" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>139</v>
       </c>
@@ -16911,7 +17022,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="220" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>139</v>
       </c>
@@ -16970,7 +17081,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="221" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>139</v>
       </c>
@@ -17029,7 +17140,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="222" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>139</v>
       </c>
@@ -17088,7 +17199,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="223" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>139</v>
       </c>
@@ -17147,7 +17258,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="224" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>139</v>
       </c>
@@ -17206,7 +17317,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="225" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>140</v>
       </c>
@@ -17265,7 +17376,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="226" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>141</v>
       </c>
@@ -17324,7 +17435,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="227" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>142</v>
       </c>
@@ -17383,7 +17494,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="228" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>142</v>
       </c>
@@ -17442,7 +17553,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="229" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>142</v>
       </c>
@@ -17501,7 +17612,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="230" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>142</v>
       </c>
@@ -17560,7 +17671,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="231" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>143</v>
       </c>
@@ -17619,7 +17730,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="232" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>144</v>
       </c>
@@ -17678,7 +17789,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="233" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>145</v>
       </c>
@@ -17737,7 +17848,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="234" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>145</v>
       </c>
@@ -17796,7 +17907,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="235" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>145</v>
       </c>
@@ -17855,7 +17966,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="236" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>145</v>
       </c>
@@ -17914,7 +18025,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="237" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>145</v>
       </c>
@@ -17973,7 +18084,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="238" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>145</v>
       </c>
@@ -18032,7 +18143,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="239" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>146</v>
       </c>
@@ -18091,7 +18202,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="240" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>146</v>
       </c>
@@ -18150,7 +18261,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="241" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>146</v>
       </c>
@@ -18209,7 +18320,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="242" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>146</v>
       </c>
@@ -18268,7 +18379,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="243" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>146</v>
       </c>
@@ -18327,7 +18438,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="244" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>147</v>
       </c>
@@ -18386,7 +18497,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="245" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>147</v>
       </c>
@@ -18445,7 +18556,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="246" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>148</v>
       </c>
@@ -18504,7 +18615,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="247" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>148</v>
       </c>
@@ -18563,7 +18674,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="248" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>148</v>
       </c>
@@ -18622,7 +18733,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="249" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>148</v>
       </c>
@@ -18681,7 +18792,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="250" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>149</v>
       </c>
@@ -18740,7 +18851,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="251" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>150</v>
       </c>
@@ -18799,7 +18910,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="252" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>151</v>
       </c>
@@ -18858,7 +18969,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="253" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>152</v>
       </c>
@@ -18917,7 +19028,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="254" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>153</v>
       </c>
@@ -18976,7 +19087,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="255" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>154</v>
       </c>
@@ -19035,7 +19146,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="256" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>155</v>
       </c>
@@ -19094,7 +19205,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="257" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>156</v>
       </c>
@@ -19153,7 +19264,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="258" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>157</v>
       </c>
@@ -19212,7 +19323,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="259" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>158</v>
       </c>
@@ -19271,7 +19382,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="260" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>158</v>
       </c>
@@ -19330,7 +19441,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="261" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>158</v>
       </c>
@@ -19389,7 +19500,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="262" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>158</v>
       </c>
@@ -19448,7 +19559,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="263" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>159</v>
       </c>
@@ -19507,7 +19618,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="264" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>159</v>
       </c>
@@ -19566,7 +19677,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="265" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>159</v>
       </c>
@@ -19625,7 +19736,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="266" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>159</v>
       </c>
@@ -19684,7 +19795,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="267" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>159</v>
       </c>
@@ -19743,7 +19854,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="268" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>159</v>
       </c>
@@ -19802,7 +19913,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="269" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>159</v>
       </c>
@@ -19861,7 +19972,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="270" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>159</v>
       </c>
@@ -19920,7 +20031,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="271" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>159</v>
       </c>
@@ -19979,7 +20090,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="272" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>159</v>
       </c>
@@ -20038,7 +20149,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="273" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>160</v>
       </c>
@@ -20097,7 +20208,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="274" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>161</v>
       </c>
@@ -20156,7 +20267,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="275" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>161</v>
       </c>
@@ -20215,7 +20326,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="276" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>161</v>
       </c>
@@ -20274,7 +20385,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="277" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>161</v>
       </c>
@@ -20333,7 +20444,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="278" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>162</v>
       </c>
@@ -20392,7 +20503,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="279" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>163</v>
       </c>
@@ -20451,7 +20562,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="280" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>163</v>
       </c>
@@ -20510,7 +20621,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="281" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>163</v>
       </c>
@@ -20569,7 +20680,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="282" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>163</v>
       </c>
@@ -20628,7 +20739,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="283" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>163</v>
       </c>
@@ -20687,7 +20798,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="284" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>164</v>
       </c>
@@ -20746,7 +20857,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="285" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>165</v>
       </c>
@@ -20805,7 +20916,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="286" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>166</v>
       </c>
@@ -20864,7 +20975,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="287" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>167</v>
       </c>
@@ -20923,7 +21034,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="288" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>168</v>
       </c>
@@ -20982,7 +21093,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="289" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>169</v>
       </c>
@@ -21041,7 +21152,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="290" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>170</v>
       </c>
@@ -21100,7 +21211,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="291" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>170</v>
       </c>
@@ -21159,7 +21270,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="292" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>171</v>
       </c>
@@ -21218,7 +21329,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="293" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>172</v>
       </c>
@@ -21277,7 +21388,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="294" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>173</v>
       </c>
@@ -21336,7 +21447,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="295" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>174</v>
       </c>
@@ -21395,7 +21506,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="296" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>175</v>
       </c>
@@ -21454,7 +21565,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="297" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>175</v>
       </c>
@@ -21513,7 +21624,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="298" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>175</v>
       </c>
@@ -21572,7 +21683,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="299" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>175</v>
       </c>
@@ -21631,7 +21742,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="300" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>176</v>
       </c>
@@ -21690,7 +21801,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="301" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>177</v>
       </c>
@@ -21749,7 +21860,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="302" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>177</v>
       </c>
@@ -21808,7 +21919,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="303" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>177</v>
       </c>
@@ -21867,7 +21978,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="304" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>177</v>
       </c>
@@ -21926,7 +22037,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="305" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>177</v>
       </c>
@@ -21985,7 +22096,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="306" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>177</v>
       </c>
@@ -22044,7 +22155,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="307" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>177</v>
       </c>
@@ -22103,7 +22214,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="308" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>178</v>
       </c>
@@ -22162,7 +22273,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="309" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>179</v>
       </c>
@@ -22221,7 +22332,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="310" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>179</v>
       </c>
@@ -22280,7 +22391,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="311" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>180</v>
       </c>
@@ -22339,7 +22450,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="312" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>180</v>
       </c>
@@ -22398,7 +22509,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="313" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>181</v>
       </c>
@@ -22457,7 +22568,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="314" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>182</v>
       </c>
@@ -22516,7 +22627,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="315" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>183</v>
       </c>
@@ -22575,7 +22686,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="316" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>183</v>
       </c>
@@ -22634,7 +22745,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="317" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>183</v>
       </c>
@@ -22693,7 +22804,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="318" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>183</v>
       </c>
@@ -22752,7 +22863,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="319" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>184</v>
       </c>
@@ -22811,7 +22922,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="320" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>185</v>
       </c>
@@ -22870,7 +22981,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="321" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>185</v>
       </c>
@@ -22929,7 +23040,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="322" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>185</v>
       </c>
@@ -22988,7 +23099,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="323" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>185</v>
       </c>
@@ -23047,7 +23158,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="324" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>185</v>
       </c>
@@ -23106,7 +23217,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="325" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>186</v>
       </c>
@@ -23165,7 +23276,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="326" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>186</v>
       </c>
@@ -23224,7 +23335,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="327" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>187</v>
       </c>
@@ -23283,7 +23394,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="328" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>188</v>
       </c>
@@ -23342,7 +23453,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="329" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>188</v>
       </c>
@@ -23401,7 +23512,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="330" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>188</v>
       </c>
@@ -23460,7 +23571,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="331" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>188</v>
       </c>
@@ -23519,7 +23630,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="332" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>188</v>
       </c>
@@ -23578,7 +23689,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="333" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>188</v>
       </c>
@@ -23637,7 +23748,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="334" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>188</v>
       </c>
@@ -23696,7 +23807,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="335" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>189</v>
       </c>
@@ -23755,7 +23866,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="336" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>190</v>
       </c>
@@ -23814,7 +23925,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="337" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>191</v>
       </c>
@@ -23873,7 +23984,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="338" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>192</v>
       </c>
@@ -23932,7 +24043,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="339" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>193</v>
       </c>
@@ -23991,7 +24102,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="340" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>194</v>
       </c>
@@ -24050,7 +24161,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="341" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>191</v>
       </c>
@@ -24109,7 +24220,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="342" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>191</v>
       </c>
@@ -24168,7 +24279,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="343" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>195</v>
       </c>
@@ -24227,7 +24338,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="344" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>196</v>
       </c>
@@ -24286,7 +24397,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="345" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>197</v>
       </c>
@@ -24345,7 +24456,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="346" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>197</v>
       </c>
@@ -24404,7 +24515,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="347" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>198</v>
       </c>
@@ -24463,7 +24574,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="348" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>199</v>
       </c>
@@ -24522,7 +24633,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="349" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>200</v>
       </c>
@@ -24581,7 +24692,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="350" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>201</v>
       </c>
@@ -24640,7 +24751,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="351" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>202</v>
       </c>
@@ -24699,7 +24810,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="352" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>203</v>
       </c>
@@ -24758,7 +24869,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="353" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>204</v>
       </c>
@@ -24817,7 +24928,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="354" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>205</v>
       </c>
@@ -24876,7 +24987,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="355" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>206</v>
       </c>
@@ -24935,7 +25046,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="356" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>207</v>
       </c>
@@ -24994,7 +25105,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="357" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>208</v>
       </c>
@@ -25053,7 +25164,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="358" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>209</v>
       </c>
@@ -25112,7 +25223,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="359" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>210</v>
       </c>
@@ -25171,7 +25282,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="360" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>210</v>
       </c>
@@ -25230,7 +25341,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="361" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>211</v>
       </c>
@@ -25289,7 +25400,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="362" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>212</v>
       </c>
@@ -25348,7 +25459,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="363" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>212</v>
       </c>
@@ -25407,7 +25518,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="364" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>212</v>
       </c>
@@ -25466,7 +25577,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="365" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>212</v>
       </c>
@@ -25525,7 +25636,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="366" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>212</v>
       </c>
@@ -25584,7 +25695,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="367" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>212</v>
       </c>
@@ -25643,7 +25754,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="368" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>212</v>
       </c>
@@ -25702,7 +25813,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="369" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>212</v>
       </c>
@@ -25761,7 +25872,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="370" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>212</v>
       </c>
@@ -25820,7 +25931,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="371" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>212</v>
       </c>
@@ -25879,7 +25990,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="372" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>212</v>
       </c>
@@ -25938,7 +26049,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="373" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>212</v>
       </c>
@@ -25997,7 +26108,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="374" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>212</v>
       </c>
@@ -26056,7 +26167,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="375" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>212</v>
       </c>
@@ -26115,7 +26226,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="376" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>212</v>
       </c>
@@ -26174,7 +26285,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="377" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>213</v>
       </c>
@@ -26233,7 +26344,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="378" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>214</v>
       </c>
@@ -26292,7 +26403,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="379" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>215</v>
       </c>
@@ -26351,7 +26462,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="380" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>216</v>
       </c>
@@ -26410,7 +26521,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="381" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>217</v>
       </c>
@@ -26469,7 +26580,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="382" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>217</v>
       </c>
@@ -26528,7 +26639,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="383" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>218</v>
       </c>
@@ -26587,7 +26698,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="384" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>219</v>
       </c>
@@ -26646,7 +26757,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="385" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>219</v>
       </c>
@@ -26705,7 +26816,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="386" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>220</v>
       </c>
@@ -26764,7 +26875,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="387" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>220</v>
       </c>
@@ -26823,7 +26934,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="388" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>221</v>
       </c>
@@ -26882,7 +26993,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="389" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>222</v>
       </c>
@@ -26941,7 +27052,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="390" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>222</v>
       </c>
@@ -27000,7 +27111,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="391" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>222</v>
       </c>
@@ -27059,7 +27170,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="392" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>223</v>
       </c>
@@ -27118,7 +27229,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="393" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>224</v>
       </c>
@@ -27177,7 +27288,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="394" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>224</v>
       </c>
@@ -27236,7 +27347,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="395" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>224</v>
       </c>
@@ -27295,7 +27406,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="396" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>224</v>
       </c>
@@ -27354,7 +27465,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="397" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>224</v>
       </c>
@@ -27413,7 +27524,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="398" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>225</v>
       </c>
@@ -27472,7 +27583,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="399" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>226</v>
       </c>
@@ -27531,7 +27642,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="400" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>227</v>
       </c>
@@ -27590,7 +27701,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="401" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>228</v>
       </c>
@@ -27649,7 +27760,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="402" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>229</v>
       </c>
@@ -27708,7 +27819,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="403" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>230</v>
       </c>
@@ -27767,7 +27878,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="404" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>231</v>
       </c>
@@ -27826,7 +27937,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="405" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>231</v>
       </c>
@@ -27885,7 +27996,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="406" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>231</v>
       </c>
@@ -27944,7 +28055,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="407" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>232</v>
       </c>
@@ -28003,7 +28114,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="408" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>232</v>
       </c>
@@ -28062,7 +28173,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="409" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>232</v>
       </c>
@@ -28121,7 +28232,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="410" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>232</v>
       </c>
@@ -28180,7 +28291,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="411" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>232</v>
       </c>
@@ -28239,7 +28350,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="412" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>232</v>
       </c>
@@ -28298,7 +28409,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="413" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>232</v>
       </c>
@@ -28357,7 +28468,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="414" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>233</v>
       </c>
@@ -28416,7 +28527,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="415" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>233</v>
       </c>
@@ -28475,7 +28586,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="416" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>234</v>
       </c>
@@ -28534,7 +28645,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="417" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>235</v>
       </c>
@@ -28593,7 +28704,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="418" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>236</v>
       </c>
@@ -28652,7 +28763,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="419" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>237</v>
       </c>
@@ -28711,7 +28822,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="420" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>237</v>
       </c>
@@ -28770,7 +28881,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="421" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>238</v>
       </c>
@@ -28829,7 +28940,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="422" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>239</v>
       </c>
@@ -28888,7 +28999,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="423" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>239</v>
       </c>
@@ -28947,7 +29058,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="424" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>239</v>
       </c>
@@ -29006,7 +29117,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="425" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>239</v>
       </c>
@@ -29065,7 +29176,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="426" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>239</v>
       </c>
@@ -29124,7 +29235,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="427" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>239</v>
       </c>
@@ -29183,7 +29294,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="428" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>239</v>
       </c>
@@ -29242,7 +29353,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="429" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>240</v>
       </c>
@@ -29301,7 +29412,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="430" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>241</v>
       </c>
@@ -29360,7 +29471,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="431" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>242</v>
       </c>
@@ -29419,7 +29530,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="432" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>243</v>
       </c>
@@ -29478,7 +29589,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="433" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>244</v>
       </c>
@@ -29537,7 +29648,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="434" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>245</v>
       </c>
@@ -29596,7 +29707,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="435" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>246</v>
       </c>
@@ -29655,7 +29766,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="436" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>246</v>
       </c>
@@ -29714,7 +29825,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="437" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>247</v>
       </c>
@@ -29773,7 +29884,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="438" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>248</v>
       </c>
@@ -29832,7 +29943,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="439" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>249</v>
       </c>
@@ -29891,7 +30002,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="440" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>250</v>
       </c>
@@ -29950,7 +30061,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="441" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>251</v>
       </c>
@@ -30009,7 +30120,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="442" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>252</v>
       </c>
@@ -30068,7 +30179,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="443" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>252</v>
       </c>
@@ -30127,7 +30238,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="444" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>252</v>
       </c>
@@ -30186,7 +30297,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="445" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>252</v>
       </c>
@@ -30245,7 +30356,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="446" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>252</v>
       </c>
@@ -30304,7 +30415,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="447" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>252</v>
       </c>
@@ -30363,7 +30474,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="448" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>253</v>
       </c>
@@ -30422,7 +30533,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="449" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>254</v>
       </c>
@@ -30481,7 +30592,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="450" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>254</v>
       </c>
@@ -30540,7 +30651,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="451" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>254</v>
       </c>
@@ -30599,7 +30710,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="452" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>255</v>
       </c>
@@ -30658,7 +30769,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="453" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>256</v>
       </c>
@@ -30717,7 +30828,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="454" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>256</v>
       </c>
@@ -30776,7 +30887,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="455" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>257</v>
       </c>
@@ -30835,7 +30946,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="456" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>258</v>
       </c>
@@ -30891,7 +31002,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="457" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>258</v>
       </c>
@@ -30947,7 +31058,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="458" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>258</v>
       </c>
@@ -31003,7 +31114,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="459" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>259</v>
       </c>
@@ -31062,7 +31173,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="460" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>260</v>
       </c>
@@ -31121,7 +31232,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="461" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>261</v>
       </c>
@@ -31180,7 +31291,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="462" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>262</v>
       </c>
@@ -31239,7 +31350,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="463" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>263</v>
       </c>
@@ -31298,7 +31409,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="464" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>264</v>
       </c>
@@ -31357,7 +31468,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="465" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>264</v>
       </c>
@@ -31416,7 +31527,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="466" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>264</v>
       </c>
@@ -31475,7 +31586,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="467" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>265</v>
       </c>
@@ -31534,7 +31645,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="468" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>266</v>
       </c>
@@ -31593,7 +31704,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="469" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>267</v>
       </c>
@@ -31652,7 +31763,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="470" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>267</v>
       </c>
@@ -31711,7 +31822,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="471" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>268</v>
       </c>
@@ -31770,7 +31881,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="472" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>268</v>
       </c>
@@ -31829,7 +31940,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="473" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>269</v>
       </c>
@@ -31888,7 +31999,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="474" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>269</v>
       </c>
@@ -31947,7 +32058,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="475" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>269</v>
       </c>
@@ -32006,7 +32117,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="476" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>269</v>
       </c>
@@ -32065,7 +32176,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="477" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>270</v>
       </c>
@@ -32124,7 +32235,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="478" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>271</v>
       </c>
@@ -32183,7 +32294,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="479" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>271</v>
       </c>
@@ -32242,7 +32353,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="480" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>271</v>
       </c>
@@ -32301,7 +32412,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="481" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>271</v>
       </c>
@@ -32360,7 +32471,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="482" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>271</v>
       </c>
@@ -32419,7 +32530,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="483" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>271</v>
       </c>
@@ -32478,7 +32589,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="484" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>271</v>
       </c>
@@ -32537,7 +32648,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="485" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>271</v>
       </c>
@@ -32596,7 +32707,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="486" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>271</v>
       </c>
@@ -32655,7 +32766,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="487" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>271</v>
       </c>
@@ -32714,7 +32825,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="488" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>271</v>
       </c>
@@ -32773,7 +32884,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="489" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>271</v>
       </c>
@@ -32832,7 +32943,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="490" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>271</v>
       </c>
@@ -32891,7 +33002,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="491" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>271</v>
       </c>
@@ -32950,7 +33061,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="492" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>271</v>
       </c>
@@ -33009,7 +33120,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="493" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>272</v>
       </c>
@@ -33068,7 +33179,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="494" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>272</v>
       </c>
@@ -33127,7 +33238,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="495" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>272</v>
       </c>
@@ -33186,7 +33297,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="496" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>272</v>
       </c>
@@ -33245,7 +33356,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="497" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>272</v>
       </c>
@@ -33304,7 +33415,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="498" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>273</v>
       </c>
@@ -33363,7 +33474,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="499" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>273</v>
       </c>
@@ -33422,7 +33533,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="500" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>273</v>
       </c>
@@ -33481,7 +33592,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="501" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>273</v>
       </c>
@@ -33540,7 +33651,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="502" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>273</v>
       </c>
@@ -33599,7 +33710,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="503" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>273</v>
       </c>
@@ -33658,7 +33769,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="504" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>273</v>
       </c>
@@ -33717,7 +33828,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="505" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>273</v>
       </c>
@@ -33776,7 +33887,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="506" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>273</v>
       </c>
@@ -33835,7 +33946,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="507" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>273</v>
       </c>
@@ -33894,7 +34005,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="508" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>273</v>
       </c>
@@ -33953,7 +34064,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="509" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>273</v>
       </c>
@@ -34012,7 +34123,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="510" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>273</v>
       </c>
@@ -34071,7 +34182,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="511" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>273</v>
       </c>
@@ -34130,7 +34241,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="512" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>273</v>
       </c>
@@ -34189,7 +34300,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="513" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>273</v>
       </c>
@@ -34248,7 +34359,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="514" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>273</v>
       </c>
@@ -34307,7 +34418,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="515" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>273</v>
       </c>
@@ -34366,7 +34477,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="516" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>273</v>
       </c>
@@ -34425,7 +34536,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="517" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>273</v>
       </c>
@@ -34484,7 +34595,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="518" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>273</v>
       </c>
@@ -34543,7 +34654,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="519" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>273</v>
       </c>
@@ -34602,7 +34713,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="520" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>273</v>
       </c>
@@ -34661,7 +34772,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="521" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>273</v>
       </c>
@@ -34720,7 +34831,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="522" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>273</v>
       </c>
@@ -34779,7 +34890,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="523" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>273</v>
       </c>
@@ -34838,7 +34949,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="524" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>273</v>
       </c>
@@ -34897,7 +35008,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="525" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>273</v>
       </c>
@@ -34956,7 +35067,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="526" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>273</v>
       </c>
@@ -35015,7 +35126,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="527" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>274</v>
       </c>
@@ -35074,7 +35185,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="528" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>275</v>
       </c>
@@ -35133,7 +35244,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="529" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>276</v>
       </c>
@@ -35192,7 +35303,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="530" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>277</v>
       </c>
@@ -35251,7 +35362,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="531" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>278</v>
       </c>
@@ -35310,7 +35421,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="532" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>279</v>
       </c>
@@ -35369,7 +35480,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="533" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>280</v>
       </c>
@@ -35428,7 +35539,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="534" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>280</v>
       </c>
@@ -35487,7 +35598,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="535" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>281</v>
       </c>
@@ -35546,7 +35657,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="536" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>282</v>
       </c>
@@ -35605,7 +35716,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="537" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>283</v>
       </c>
@@ -35664,7 +35775,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="538" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>283</v>
       </c>
@@ -35723,7 +35834,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="539" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>284</v>
       </c>
@@ -35782,7 +35893,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="540" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>284</v>
       </c>
@@ -35841,7 +35952,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="541" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>285</v>
       </c>
@@ -35900,7 +36011,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="542" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>285</v>
       </c>
@@ -35959,7 +36070,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="543" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>286</v>
       </c>
@@ -36018,7 +36129,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="544" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>287</v>
       </c>
@@ -36077,7 +36188,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="545" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>287</v>
       </c>
@@ -36136,7 +36247,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="546" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>287</v>
       </c>
@@ -36195,7 +36306,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="547" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>287</v>
       </c>
@@ -36254,7 +36365,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="548" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>287</v>
       </c>
@@ -36313,7 +36424,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="549" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>287</v>
       </c>
@@ -36372,7 +36483,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="550" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>287</v>
       </c>
@@ -36431,7 +36542,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="551" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>288</v>
       </c>
@@ -36490,7 +36601,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="552" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>288</v>
       </c>
@@ -36549,7 +36660,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="553" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>289</v>
       </c>
@@ -36608,7 +36719,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="554" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>290</v>
       </c>
@@ -36667,7 +36778,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="555" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>290</v>
       </c>
@@ -36726,7 +36837,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="556" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>291</v>
       </c>
@@ -36785,7 +36896,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="557" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>292</v>
       </c>
@@ -36844,7 +36955,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="558" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>293</v>
       </c>
@@ -36903,7 +37014,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="559" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>294</v>
       </c>
@@ -36962,7 +37073,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="560" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>294</v>
       </c>
@@ -37021,7 +37132,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="561" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>295</v>
       </c>
@@ -37080,7 +37191,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="562" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>296</v>
       </c>
@@ -37139,7 +37250,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="563" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>297</v>
       </c>
@@ -37198,7 +37309,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="564" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>298</v>
       </c>
@@ -37257,7 +37368,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="565" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>299</v>
       </c>
@@ -37316,7 +37427,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="566" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>300</v>
       </c>
@@ -37375,7 +37486,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="567" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>301</v>
       </c>
@@ -37434,7 +37545,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="568" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>301</v>
       </c>
@@ -37493,7 +37604,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="569" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>301</v>
       </c>
@@ -37552,7 +37663,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="570" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>302</v>
       </c>
@@ -37611,7 +37722,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="571" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>303</v>
       </c>
@@ -37670,7 +37781,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="572" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>303</v>
       </c>
@@ -37729,7 +37840,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="573" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
         <v>303</v>
       </c>
@@ -37788,7 +37899,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="574" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>303</v>
       </c>
@@ -37847,7 +37958,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="575" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>303</v>
       </c>
@@ -37906,7 +38017,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="576" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
         <v>303</v>
       </c>
@@ -37965,7 +38076,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="577" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>303</v>
       </c>
@@ -38024,7 +38135,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="578" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
         <v>304</v>
       </c>
@@ -38083,7 +38194,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="579" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
         <v>305</v>
       </c>
@@ -38142,7 +38253,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="580" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
         <v>306</v>
       </c>
@@ -38201,7 +38312,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="581" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
         <v>307</v>
       </c>
@@ -38260,7 +38371,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="582" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
         <v>308</v>
       </c>
@@ -38319,7 +38430,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="583" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
         <v>309</v>
       </c>
@@ -38378,7 +38489,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="584" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
         <v>310</v>
       </c>
@@ -38437,7 +38548,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="585" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
         <v>310</v>
       </c>
@@ -38496,7 +38607,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="586" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
         <v>311</v>
       </c>
@@ -38555,7 +38666,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="587" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
         <v>312</v>
       </c>
@@ -38614,7 +38725,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="588" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
         <v>312</v>
       </c>
@@ -38673,7 +38784,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="589" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A589" t="s">
         <v>313</v>
       </c>
@@ -38730,6 +38841,2366 @@
       </c>
       <c r="S589" t="s">
         <v>1180</v>
+      </c>
+    </row>
+    <row r="590" spans="1:19" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A590" s="6" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B590" s="7">
+        <v>44958</v>
+      </c>
+      <c r="C590" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="D590" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="E590" s="6" t="s">
+        <v>586</v>
+      </c>
+      <c r="F590" s="6" t="s">
+        <v>589</v>
+      </c>
+      <c r="G590" s="6" t="s">
+        <v>592</v>
+      </c>
+      <c r="H590" s="6" t="s">
+        <v>621</v>
+      </c>
+      <c r="I590" s="6" t="s">
+        <v>849</v>
+      </c>
+      <c r="J590" s="6" t="s">
+        <v>1089</v>
+      </c>
+      <c r="K590" s="6" t="s">
+        <v>1141</v>
+      </c>
+      <c r="L590" s="6" t="s">
+        <v>1150</v>
+      </c>
+      <c r="M590" s="8">
+        <v>10</v>
+      </c>
+      <c r="N590" s="8">
+        <v>1408182</v>
+      </c>
+      <c r="O590" s="8">
+        <v>14081820</v>
+      </c>
+      <c r="P590" s="6" t="s">
+        <v>1170</v>
+      </c>
+      <c r="Q590" s="7">
+        <v>44927</v>
+      </c>
+      <c r="R590" s="6" t="s">
+        <v>1178</v>
+      </c>
+      <c r="S590" s="6" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="591" spans="1:19" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A591" s="6" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B591" s="7">
+        <v>44652</v>
+      </c>
+      <c r="C591" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="D591" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="E591" s="6" t="s">
+        <v>586</v>
+      </c>
+      <c r="F591" s="6" t="s">
+        <v>589</v>
+      </c>
+      <c r="G591" s="6" t="s">
+        <v>592</v>
+      </c>
+      <c r="H591" s="6" t="s">
+        <v>622</v>
+      </c>
+      <c r="I591" s="6" t="s">
+        <v>850</v>
+      </c>
+      <c r="J591" s="6" t="s">
+        <v>1090</v>
+      </c>
+      <c r="K591" s="6" t="s">
+        <v>1142</v>
+      </c>
+      <c r="L591" s="6" t="s">
+        <v>1151</v>
+      </c>
+      <c r="M591" s="8">
+        <v>4</v>
+      </c>
+      <c r="N591" s="8">
+        <v>3151500</v>
+      </c>
+      <c r="O591" s="8">
+        <v>12606000</v>
+      </c>
+      <c r="P591" s="6" t="s">
+        <v>1170</v>
+      </c>
+      <c r="Q591" s="7">
+        <v>44682</v>
+      </c>
+      <c r="R591" s="6" t="s">
+        <v>1178</v>
+      </c>
+      <c r="S591" s="6" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="592" spans="1:19" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A592" s="6" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B592" s="7">
+        <v>44652</v>
+      </c>
+      <c r="C592" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="D592" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="E592" s="6" t="s">
+        <v>586</v>
+      </c>
+      <c r="F592" s="6" t="s">
+        <v>589</v>
+      </c>
+      <c r="G592" s="6" t="s">
+        <v>592</v>
+      </c>
+      <c r="H592" s="6" t="s">
+        <v>623</v>
+      </c>
+      <c r="I592" s="6" t="s">
+        <v>851</v>
+      </c>
+      <c r="J592" s="6" t="s">
+        <v>1090</v>
+      </c>
+      <c r="K592" s="6" t="s">
+        <v>1142</v>
+      </c>
+      <c r="L592" s="6" t="s">
+        <v>1151</v>
+      </c>
+      <c r="M592" s="8">
+        <v>1</v>
+      </c>
+      <c r="N592" s="8">
+        <v>11026000</v>
+      </c>
+      <c r="O592" s="8">
+        <v>11026000</v>
+      </c>
+      <c r="P592" s="6" t="s">
+        <v>1170</v>
+      </c>
+      <c r="Q592" s="7">
+        <v>44682</v>
+      </c>
+      <c r="R592" s="6" t="s">
+        <v>1178</v>
+      </c>
+      <c r="S592" s="6" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="593" spans="1:19" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A593" s="6" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B593" s="7">
+        <v>44652</v>
+      </c>
+      <c r="C593" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="D593" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="E593" s="6" t="s">
+        <v>586</v>
+      </c>
+      <c r="F593" s="6" t="s">
+        <v>589</v>
+      </c>
+      <c r="G593" s="6" t="s">
+        <v>592</v>
+      </c>
+      <c r="H593" s="6" t="s">
+        <v>624</v>
+      </c>
+      <c r="I593" s="6" t="s">
+        <v>852</v>
+      </c>
+      <c r="J593" s="6" t="s">
+        <v>1090</v>
+      </c>
+      <c r="K593" s="6" t="s">
+        <v>1142</v>
+      </c>
+      <c r="L593" s="6" t="s">
+        <v>1151</v>
+      </c>
+      <c r="M593" s="8">
+        <v>3</v>
+      </c>
+      <c r="N593" s="8">
+        <v>16037000</v>
+      </c>
+      <c r="O593" s="8">
+        <v>48111000</v>
+      </c>
+      <c r="P593" s="6" t="s">
+        <v>1170</v>
+      </c>
+      <c r="Q593" s="7">
+        <v>44682</v>
+      </c>
+      <c r="R593" s="6" t="s">
+        <v>1178</v>
+      </c>
+      <c r="S593" s="6" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="594" spans="1:19" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A594" s="6" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B594" s="7">
+        <v>44652</v>
+      </c>
+      <c r="C594" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="D594" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="E594" s="6" t="s">
+        <v>586</v>
+      </c>
+      <c r="F594" s="6" t="s">
+        <v>589</v>
+      </c>
+      <c r="G594" s="6" t="s">
+        <v>592</v>
+      </c>
+      <c r="H594" s="6" t="s">
+        <v>625</v>
+      </c>
+      <c r="I594" s="6" t="s">
+        <v>853</v>
+      </c>
+      <c r="J594" s="6" t="s">
+        <v>1090</v>
+      </c>
+      <c r="K594" s="6" t="s">
+        <v>1142</v>
+      </c>
+      <c r="L594" s="6" t="s">
+        <v>1151</v>
+      </c>
+      <c r="M594" s="8">
+        <v>2</v>
+      </c>
+      <c r="N594" s="8">
+        <v>7219000</v>
+      </c>
+      <c r="O594" s="8">
+        <v>14438000</v>
+      </c>
+      <c r="P594" s="6" t="s">
+        <v>1170</v>
+      </c>
+      <c r="Q594" s="7">
+        <v>44682</v>
+      </c>
+      <c r="R594" s="6" t="s">
+        <v>1178</v>
+      </c>
+      <c r="S594" s="6" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="595" spans="1:19" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A595" s="6" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B595" s="7">
+        <v>45078</v>
+      </c>
+      <c r="C595" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="D595" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="E595" s="6" t="s">
+        <v>586</v>
+      </c>
+      <c r="F595" s="6" t="s">
+        <v>589</v>
+      </c>
+      <c r="G595" s="6" t="s">
+        <v>592</v>
+      </c>
+      <c r="H595" s="6" t="s">
+        <v>663</v>
+      </c>
+      <c r="I595" s="6" t="s">
+        <v>891</v>
+      </c>
+      <c r="J595" s="6" t="s">
+        <v>1103</v>
+      </c>
+      <c r="K595" s="6" t="s">
+        <v>1141</v>
+      </c>
+      <c r="L595" s="6" t="s">
+        <v>1153</v>
+      </c>
+      <c r="M595" s="8">
+        <v>7</v>
+      </c>
+      <c r="N595" s="8">
+        <v>853153</v>
+      </c>
+      <c r="O595" s="8">
+        <v>5972071</v>
+      </c>
+      <c r="P595" s="6" t="s">
+        <v>1170</v>
+      </c>
+      <c r="Q595" s="7">
+        <v>45078</v>
+      </c>
+      <c r="R595" s="6" t="s">
+        <v>1178</v>
+      </c>
+      <c r="S595" s="6" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="596" spans="1:19" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A596" s="6" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B596" s="7">
+        <v>45078</v>
+      </c>
+      <c r="C596" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="D596" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="E596" s="6" t="s">
+        <v>586</v>
+      </c>
+      <c r="F596" s="6" t="s">
+        <v>589</v>
+      </c>
+      <c r="G596" s="6" t="s">
+        <v>597</v>
+      </c>
+      <c r="H596" s="6" t="s">
+        <v>664</v>
+      </c>
+      <c r="I596" s="6" t="s">
+        <v>892</v>
+      </c>
+      <c r="J596" s="6" t="s">
+        <v>1096</v>
+      </c>
+      <c r="K596" s="6" t="s">
+        <v>1143</v>
+      </c>
+      <c r="L596" s="6" t="s">
+        <v>1153</v>
+      </c>
+      <c r="M596" s="8">
+        <v>33</v>
+      </c>
+      <c r="N596" s="8">
+        <v>770250</v>
+      </c>
+      <c r="O596" s="8">
+        <v>25418250</v>
+      </c>
+      <c r="P596" s="6" t="s">
+        <v>1170</v>
+      </c>
+      <c r="Q596" s="7">
+        <v>45078</v>
+      </c>
+      <c r="R596" s="6" t="s">
+        <v>1178</v>
+      </c>
+      <c r="S596" s="6" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="597" spans="1:19" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A597" s="6" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B597" s="7">
+        <v>45078</v>
+      </c>
+      <c r="C597" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="D597" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="E597" s="6" t="s">
+        <v>587</v>
+      </c>
+      <c r="F597" s="6" t="s">
+        <v>590</v>
+      </c>
+      <c r="G597" s="6" t="s">
+        <v>600</v>
+      </c>
+      <c r="H597" s="6" t="s">
+        <v>665</v>
+      </c>
+      <c r="I597" s="6" t="s">
+        <v>893</v>
+      </c>
+      <c r="J597" s="6" t="s">
+        <v>1104</v>
+      </c>
+      <c r="K597" s="6" t="s">
+        <v>1141</v>
+      </c>
+      <c r="L597" s="6" t="s">
+        <v>1157</v>
+      </c>
+      <c r="M597" s="8">
+        <v>1</v>
+      </c>
+      <c r="N597" s="8">
+        <v>28000000</v>
+      </c>
+      <c r="O597" s="8">
+        <v>28000000</v>
+      </c>
+      <c r="P597" s="6" t="s">
+        <v>1170</v>
+      </c>
+      <c r="Q597" s="7">
+        <v>45078</v>
+      </c>
+      <c r="R597" s="6" t="s">
+        <v>1178</v>
+      </c>
+      <c r="S597" s="6" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="598" spans="1:19" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A598" s="6" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B598" s="7">
+        <v>45078</v>
+      </c>
+      <c r="C598" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="D598" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="E598" s="6" t="s">
+        <v>586</v>
+      </c>
+      <c r="F598" s="6" t="s">
+        <v>589</v>
+      </c>
+      <c r="G598" s="6" t="s">
+        <v>596</v>
+      </c>
+      <c r="H598" s="6" t="s">
+        <v>666</v>
+      </c>
+      <c r="I598" s="6" t="s">
+        <v>894</v>
+      </c>
+      <c r="J598" s="6" t="s">
+        <v>1097</v>
+      </c>
+      <c r="K598" s="6" t="s">
+        <v>1142</v>
+      </c>
+      <c r="L598" s="6" t="s">
+        <v>1157</v>
+      </c>
+      <c r="M598" s="8">
+        <v>5</v>
+      </c>
+      <c r="N598" s="8">
+        <v>5605045</v>
+      </c>
+      <c r="O598" s="8">
+        <v>28025225</v>
+      </c>
+      <c r="P598" s="6" t="s">
+        <v>1170</v>
+      </c>
+      <c r="Q598" s="7">
+        <v>45108</v>
+      </c>
+      <c r="R598" s="6" t="s">
+        <v>1178</v>
+      </c>
+      <c r="S598" s="6" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="599" spans="1:19" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A599" s="6" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B599" s="7">
+        <v>45078</v>
+      </c>
+      <c r="C599" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="D599" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="E599" s="6" t="s">
+        <v>586</v>
+      </c>
+      <c r="F599" s="6" t="s">
+        <v>589</v>
+      </c>
+      <c r="G599" s="6" t="s">
+        <v>596</v>
+      </c>
+      <c r="H599" s="6" t="s">
+        <v>667</v>
+      </c>
+      <c r="I599" s="6" t="s">
+        <v>895</v>
+      </c>
+      <c r="J599" s="6" t="s">
+        <v>1105</v>
+      </c>
+      <c r="K599" s="6" t="s">
+        <v>1142</v>
+      </c>
+      <c r="L599" s="6" t="s">
+        <v>1160</v>
+      </c>
+      <c r="M599" s="8">
+        <v>5</v>
+      </c>
+      <c r="N599" s="8">
+        <v>2156757</v>
+      </c>
+      <c r="O599" s="8">
+        <v>10783785</v>
+      </c>
+      <c r="P599" s="6" t="s">
+        <v>1170</v>
+      </c>
+      <c r="Q599" s="7">
+        <v>45108</v>
+      </c>
+      <c r="R599" s="6" t="s">
+        <v>1178</v>
+      </c>
+      <c r="S599" s="6" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="600" spans="1:19" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A600" s="6" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B600" s="7">
+        <v>45047</v>
+      </c>
+      <c r="C600" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="D600" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="E600" s="6" t="s">
+        <v>586</v>
+      </c>
+      <c r="F600" s="6" t="s">
+        <v>589</v>
+      </c>
+      <c r="G600" s="6" t="s">
+        <v>596</v>
+      </c>
+      <c r="H600" s="6" t="s">
+        <v>688</v>
+      </c>
+      <c r="I600" s="6" t="s">
+        <v>916</v>
+      </c>
+      <c r="J600" s="6" t="s">
+        <v>1103</v>
+      </c>
+      <c r="K600" s="6" t="s">
+        <v>1141</v>
+      </c>
+      <c r="L600" s="6" t="s">
+        <v>1153</v>
+      </c>
+      <c r="M600" s="8">
+        <v>9</v>
+      </c>
+      <c r="N600" s="8">
+        <v>853153</v>
+      </c>
+      <c r="O600" s="8">
+        <v>7678377</v>
+      </c>
+      <c r="P600" s="6" t="s">
+        <v>1170</v>
+      </c>
+      <c r="Q600" s="7">
+        <v>45047</v>
+      </c>
+      <c r="R600" s="6" t="s">
+        <v>1178</v>
+      </c>
+      <c r="S600" s="6" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="601" spans="1:19" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A601" s="6" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B601" s="7">
+        <v>45047</v>
+      </c>
+      <c r="C601" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="D601" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="E601" s="6" t="s">
+        <v>586</v>
+      </c>
+      <c r="F601" s="6" t="s">
+        <v>589</v>
+      </c>
+      <c r="G601" s="6" t="s">
+        <v>596</v>
+      </c>
+      <c r="H601" s="6" t="s">
+        <v>621</v>
+      </c>
+      <c r="I601" s="6" t="s">
+        <v>849</v>
+      </c>
+      <c r="J601" s="6" t="s">
+        <v>1089</v>
+      </c>
+      <c r="K601" s="6" t="s">
+        <v>1141</v>
+      </c>
+      <c r="L601" s="6" t="s">
+        <v>1150</v>
+      </c>
+      <c r="M601" s="8">
+        <v>5</v>
+      </c>
+      <c r="N601" s="8">
+        <v>1408182</v>
+      </c>
+      <c r="O601" s="8">
+        <v>7040910</v>
+      </c>
+      <c r="P601" s="6" t="s">
+        <v>1170</v>
+      </c>
+      <c r="Q601" s="7">
+        <v>45047</v>
+      </c>
+      <c r="R601" s="6" t="s">
+        <v>1178</v>
+      </c>
+      <c r="S601" s="6" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="602" spans="1:19" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A602" s="6" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B602" s="7">
+        <v>45017</v>
+      </c>
+      <c r="C602" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="D602" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="E602" s="6" t="s">
+        <v>586</v>
+      </c>
+      <c r="F602" s="6" t="s">
+        <v>589</v>
+      </c>
+      <c r="G602" s="6" t="s">
+        <v>596</v>
+      </c>
+      <c r="H602" s="6" t="s">
+        <v>689</v>
+      </c>
+      <c r="I602" s="6" t="s">
+        <v>917</v>
+      </c>
+      <c r="J602" s="6" t="s">
+        <v>1089</v>
+      </c>
+      <c r="K602" s="6" t="s">
+        <v>1141</v>
+      </c>
+      <c r="L602" s="6" t="s">
+        <v>1150</v>
+      </c>
+      <c r="M602" s="8">
+        <v>6</v>
+      </c>
+      <c r="N602" s="8">
+        <v>1408182</v>
+      </c>
+      <c r="O602" s="8">
+        <v>8449092</v>
+      </c>
+      <c r="P602" s="6" t="s">
+        <v>1170</v>
+      </c>
+      <c r="Q602" s="7">
+        <v>45017</v>
+      </c>
+      <c r="R602" s="6" t="s">
+        <v>1178</v>
+      </c>
+      <c r="S602" s="6" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="603" spans="1:19" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A603" s="6" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B603" s="7">
+        <v>45017</v>
+      </c>
+      <c r="C603" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="D603" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="E603" s="6" t="s">
+        <v>586</v>
+      </c>
+      <c r="F603" s="6" t="s">
+        <v>589</v>
+      </c>
+      <c r="G603" s="6" t="s">
+        <v>598</v>
+      </c>
+      <c r="H603" s="6" t="s">
+        <v>626</v>
+      </c>
+      <c r="I603" s="6" t="s">
+        <v>854</v>
+      </c>
+      <c r="J603" s="6" t="s">
+        <v>1091</v>
+      </c>
+      <c r="K603" s="6" t="s">
+        <v>1141</v>
+      </c>
+      <c r="L603" s="6" t="s">
+        <v>1152</v>
+      </c>
+      <c r="M603" s="8">
+        <v>72</v>
+      </c>
+      <c r="N603" s="8">
+        <v>2530000</v>
+      </c>
+      <c r="O603" s="8">
+        <v>182160000</v>
+      </c>
+      <c r="P603" s="6" t="s">
+        <v>1170</v>
+      </c>
+      <c r="Q603" s="7">
+        <v>45017</v>
+      </c>
+      <c r="R603" s="6" t="s">
+        <v>1178</v>
+      </c>
+      <c r="S603" s="6" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="604" spans="1:19" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A604" s="6" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B604" s="7">
+        <v>45017</v>
+      </c>
+      <c r="C604" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="D604" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="E604" s="6" t="s">
+        <v>586</v>
+      </c>
+      <c r="F604" s="6" t="s">
+        <v>589</v>
+      </c>
+      <c r="G604" s="6" t="s">
+        <v>606</v>
+      </c>
+      <c r="H604" s="6" t="s">
+        <v>670</v>
+      </c>
+      <c r="I604" s="6" t="s">
+        <v>898</v>
+      </c>
+      <c r="J604" s="6" t="s">
+        <v>1091</v>
+      </c>
+      <c r="K604" s="6" t="s">
+        <v>1141</v>
+      </c>
+      <c r="L604" s="6" t="s">
+        <v>1150</v>
+      </c>
+      <c r="M604" s="8">
+        <v>260</v>
+      </c>
+      <c r="N604" s="8">
+        <v>1758250</v>
+      </c>
+      <c r="O604" s="8">
+        <v>457145000</v>
+      </c>
+      <c r="P604" s="6" t="s">
+        <v>1170</v>
+      </c>
+      <c r="Q604" s="7">
+        <v>45017</v>
+      </c>
+      <c r="R604" s="6" t="s">
+        <v>1178</v>
+      </c>
+      <c r="S604" s="6" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="605" spans="1:19" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A605" s="6" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B605" s="7">
+        <v>45582</v>
+      </c>
+      <c r="C605" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="D605" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="E605" s="6" t="s">
+        <v>586</v>
+      </c>
+      <c r="F605" s="6" t="s">
+        <v>589</v>
+      </c>
+      <c r="G605" s="6" t="s">
+        <v>599</v>
+      </c>
+      <c r="H605" s="6" t="s">
+        <v>702</v>
+      </c>
+      <c r="I605" s="6" t="s">
+        <v>935</v>
+      </c>
+      <c r="J605" s="6" t="s">
+        <v>1110</v>
+      </c>
+      <c r="K605" s="6" t="s">
+        <v>1147</v>
+      </c>
+      <c r="L605" s="6" t="s">
+        <v>1157</v>
+      </c>
+      <c r="M605" s="8">
+        <v>1</v>
+      </c>
+      <c r="N605" s="8">
+        <v>4185000</v>
+      </c>
+      <c r="O605" s="8">
+        <v>4185000</v>
+      </c>
+      <c r="P605" s="6" t="s">
+        <v>1170</v>
+      </c>
+      <c r="Q605" s="7">
+        <v>45582</v>
+      </c>
+      <c r="R605" s="6" t="s">
+        <v>1178</v>
+      </c>
+      <c r="S605" s="6" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="606" spans="1:19" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A606" s="6" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B606" s="7">
+        <v>45582</v>
+      </c>
+      <c r="C606" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="D606" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="E606" s="6" t="s">
+        <v>586</v>
+      </c>
+      <c r="F606" s="6" t="s">
+        <v>589</v>
+      </c>
+      <c r="G606" s="6" t="s">
+        <v>599</v>
+      </c>
+      <c r="H606" s="6" t="s">
+        <v>703</v>
+      </c>
+      <c r="I606" s="6" t="s">
+        <v>1199</v>
+      </c>
+      <c r="J606" s="6" t="s">
+        <v>1111</v>
+      </c>
+      <c r="K606" s="6" t="s">
+        <v>1142</v>
+      </c>
+      <c r="L606" s="6" t="s">
+        <v>1158</v>
+      </c>
+      <c r="M606" s="8">
+        <v>1</v>
+      </c>
+      <c r="N606" s="8">
+        <v>2220000</v>
+      </c>
+      <c r="O606" s="8">
+        <v>2220000</v>
+      </c>
+      <c r="P606" s="6" t="s">
+        <v>1170</v>
+      </c>
+      <c r="Q606" s="7">
+        <v>45582</v>
+      </c>
+      <c r="R606" s="6" t="s">
+        <v>1178</v>
+      </c>
+      <c r="S606" s="6" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="607" spans="1:19" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A607" s="6" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B607" s="7">
+        <v>45582</v>
+      </c>
+      <c r="C607" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="D607" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="E607" s="6" t="s">
+        <v>586</v>
+      </c>
+      <c r="F607" s="6" t="s">
+        <v>589</v>
+      </c>
+      <c r="G607" s="6" t="s">
+        <v>599</v>
+      </c>
+      <c r="H607" s="6" t="s">
+        <v>704</v>
+      </c>
+      <c r="I607" s="6" t="s">
+        <v>1200</v>
+      </c>
+      <c r="J607" s="6" t="s">
+        <v>1112</v>
+      </c>
+      <c r="K607" s="6" t="s">
+        <v>1141</v>
+      </c>
+      <c r="L607" s="6" t="s">
+        <v>1150</v>
+      </c>
+      <c r="M607" s="8">
+        <v>1</v>
+      </c>
+      <c r="N607" s="8">
+        <v>2790000</v>
+      </c>
+      <c r="O607" s="8">
+        <v>2790000</v>
+      </c>
+      <c r="P607" s="6" t="s">
+        <v>1170</v>
+      </c>
+      <c r="Q607" s="7">
+        <v>45582</v>
+      </c>
+      <c r="R607" s="6" t="s">
+        <v>1178</v>
+      </c>
+      <c r="S607" s="6" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="608" spans="1:19" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A608" s="6" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B608" s="7">
+        <v>45582</v>
+      </c>
+      <c r="C608" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="D608" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="E608" s="6" t="s">
+        <v>586</v>
+      </c>
+      <c r="F608" s="6" t="s">
+        <v>589</v>
+      </c>
+      <c r="G608" s="6" t="s">
+        <v>599</v>
+      </c>
+      <c r="H608" s="6" t="s">
+        <v>705</v>
+      </c>
+      <c r="I608" s="6" t="s">
+        <v>938</v>
+      </c>
+      <c r="J608" s="6" t="s">
+        <v>1113</v>
+      </c>
+      <c r="K608" s="6" t="s">
+        <v>1142</v>
+      </c>
+      <c r="L608" s="6" t="s">
+        <v>1158</v>
+      </c>
+      <c r="M608" s="8">
+        <v>1</v>
+      </c>
+      <c r="N608" s="8">
+        <v>1180000</v>
+      </c>
+      <c r="O608" s="8">
+        <v>1180000</v>
+      </c>
+      <c r="P608" s="6" t="s">
+        <v>1170</v>
+      </c>
+      <c r="Q608" s="7">
+        <v>45582</v>
+      </c>
+      <c r="R608" s="6" t="s">
+        <v>1178</v>
+      </c>
+      <c r="S608" s="6" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="609" spans="1:19" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A609" s="6" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B609" s="7">
+        <v>45582</v>
+      </c>
+      <c r="C609" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="D609" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="E609" s="6" t="s">
+        <v>586</v>
+      </c>
+      <c r="F609" s="6" t="s">
+        <v>589</v>
+      </c>
+      <c r="G609" s="6" t="s">
+        <v>599</v>
+      </c>
+      <c r="H609" s="6" t="s">
+        <v>702</v>
+      </c>
+      <c r="I609" s="6" t="s">
+        <v>935</v>
+      </c>
+      <c r="J609" s="6" t="s">
+        <v>1110</v>
+      </c>
+      <c r="K609" s="6" t="s">
+        <v>1147</v>
+      </c>
+      <c r="L609" s="6" t="s">
+        <v>1157</v>
+      </c>
+      <c r="M609" s="8">
+        <v>3</v>
+      </c>
+      <c r="N609" s="8">
+        <v>4185000</v>
+      </c>
+      <c r="O609" s="8">
+        <v>12555000</v>
+      </c>
+      <c r="P609" s="6" t="s">
+        <v>1170</v>
+      </c>
+      <c r="Q609" s="7">
+        <v>45582</v>
+      </c>
+      <c r="R609" s="6" t="s">
+        <v>1178</v>
+      </c>
+      <c r="S609" s="6" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="610" spans="1:19" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A610" s="6" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B610" s="7">
+        <v>45727</v>
+      </c>
+      <c r="C610" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="D610" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="E610" s="6" t="s">
+        <v>586</v>
+      </c>
+      <c r="F610" s="6" t="s">
+        <v>589</v>
+      </c>
+      <c r="G610" s="6" t="s">
+        <v>596</v>
+      </c>
+      <c r="H610" s="6" t="s">
+        <v>737</v>
+      </c>
+      <c r="I610" s="6" t="s">
+        <v>971</v>
+      </c>
+      <c r="J610" s="6" t="s">
+        <v>1121</v>
+      </c>
+      <c r="K610" s="6" t="s">
+        <v>1142</v>
+      </c>
+      <c r="L610" s="6" t="s">
+        <v>1151</v>
+      </c>
+      <c r="M610" s="8">
+        <v>15</v>
+      </c>
+      <c r="N610" s="8">
+        <v>1132905</v>
+      </c>
+      <c r="O610" s="8">
+        <v>16993575</v>
+      </c>
+      <c r="P610" s="6" t="s">
+        <v>1170</v>
+      </c>
+      <c r="Q610" s="7">
+        <v>45727</v>
+      </c>
+      <c r="R610" s="6" t="s">
+        <v>1178</v>
+      </c>
+      <c r="S610" s="6" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="611" spans="1:19" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A611" s="6" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B611" s="7">
+        <v>45727</v>
+      </c>
+      <c r="C611" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="D611" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="E611" s="6" t="s">
+        <v>586</v>
+      </c>
+      <c r="F611" s="6" t="s">
+        <v>589</v>
+      </c>
+      <c r="G611" s="6" t="s">
+        <v>596</v>
+      </c>
+      <c r="H611" s="6" t="s">
+        <v>738</v>
+      </c>
+      <c r="I611" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="J611" s="6" t="s">
+        <v>1122</v>
+      </c>
+      <c r="K611" s="6" t="s">
+        <v>1141</v>
+      </c>
+      <c r="L611" s="6" t="s">
+        <v>1153</v>
+      </c>
+      <c r="M611" s="8">
+        <v>12</v>
+      </c>
+      <c r="N611" s="8">
+        <v>4196858</v>
+      </c>
+      <c r="O611" s="8">
+        <v>50362296</v>
+      </c>
+      <c r="P611" s="6" t="s">
+        <v>1170</v>
+      </c>
+      <c r="Q611" s="7">
+        <v>45727</v>
+      </c>
+      <c r="R611" s="6" t="s">
+        <v>1178</v>
+      </c>
+      <c r="S611" s="6" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="612" spans="1:19" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A612" s="6" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B612" s="7">
+        <v>45727</v>
+      </c>
+      <c r="C612" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="D612" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="E612" s="6" t="s">
+        <v>586</v>
+      </c>
+      <c r="F612" s="6" t="s">
+        <v>589</v>
+      </c>
+      <c r="G612" s="6" t="s">
+        <v>596</v>
+      </c>
+      <c r="H612" s="6" t="s">
+        <v>739</v>
+      </c>
+      <c r="I612" s="6" t="s">
+        <v>973</v>
+      </c>
+      <c r="J612" s="6" t="s">
+        <v>1090</v>
+      </c>
+      <c r="K612" s="6" t="s">
+        <v>1142</v>
+      </c>
+      <c r="L612" s="6" t="s">
+        <v>1151</v>
+      </c>
+      <c r="M612" s="8">
+        <v>4</v>
+      </c>
+      <c r="N612" s="8">
+        <v>5471757</v>
+      </c>
+      <c r="O612" s="8">
+        <v>21887028</v>
+      </c>
+      <c r="P612" s="6" t="s">
+        <v>1170</v>
+      </c>
+      <c r="Q612" s="7">
+        <v>45727</v>
+      </c>
+      <c r="R612" s="6" t="s">
+        <v>1178</v>
+      </c>
+      <c r="S612" s="6" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="613" spans="1:19" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A613" s="6" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B613" s="7">
+        <v>45727</v>
+      </c>
+      <c r="C613" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="D613" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="E613" s="6" t="s">
+        <v>586</v>
+      </c>
+      <c r="F613" s="6" t="s">
+        <v>589</v>
+      </c>
+      <c r="G613" s="6" t="s">
+        <v>596</v>
+      </c>
+      <c r="H613" s="6" t="s">
+        <v>672</v>
+      </c>
+      <c r="I613" s="6" t="s">
+        <v>900</v>
+      </c>
+      <c r="J613" s="6" t="s">
+        <v>1106</v>
+      </c>
+      <c r="K613" s="6" t="s">
+        <v>1146</v>
+      </c>
+      <c r="L613" s="6" t="s">
+        <v>1157</v>
+      </c>
+      <c r="M613" s="8">
+        <v>1</v>
+      </c>
+      <c r="N613" s="8">
+        <v>638514</v>
+      </c>
+      <c r="O613" s="8">
+        <v>638514</v>
+      </c>
+      <c r="P613" s="6" t="s">
+        <v>1170</v>
+      </c>
+      <c r="Q613" s="7">
+        <v>45727</v>
+      </c>
+      <c r="R613" s="6" t="s">
+        <v>1178</v>
+      </c>
+      <c r="S613" s="6" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="614" spans="1:19" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A614" s="6" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B614" s="7">
+        <v>45727</v>
+      </c>
+      <c r="C614" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="D614" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="E614" s="6" t="s">
+        <v>586</v>
+      </c>
+      <c r="F614" s="6" t="s">
+        <v>589</v>
+      </c>
+      <c r="G614" s="6" t="s">
+        <v>596</v>
+      </c>
+      <c r="H614" s="6" t="s">
+        <v>740</v>
+      </c>
+      <c r="I614" s="6" t="s">
+        <v>948</v>
+      </c>
+      <c r="J614" s="6" t="s">
+        <v>1110</v>
+      </c>
+      <c r="K614" s="6" t="s">
+        <v>1147</v>
+      </c>
+      <c r="L614" s="6" t="s">
+        <v>1157</v>
+      </c>
+      <c r="M614" s="8">
+        <v>4</v>
+      </c>
+      <c r="N614" s="8">
+        <v>2481689</v>
+      </c>
+      <c r="O614" s="8">
+        <v>9926756</v>
+      </c>
+      <c r="P614" s="6" t="s">
+        <v>1170</v>
+      </c>
+      <c r="Q614" s="7">
+        <v>45727</v>
+      </c>
+      <c r="R614" s="6" t="s">
+        <v>1178</v>
+      </c>
+      <c r="S614" s="6" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="615" spans="1:19" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A615" s="6" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B615" s="7">
+        <v>45771</v>
+      </c>
+      <c r="C615" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="D615" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="E615" s="6" t="s">
+        <v>586</v>
+      </c>
+      <c r="F615" s="6" t="s">
+        <v>589</v>
+      </c>
+      <c r="G615" s="6" t="s">
+        <v>596</v>
+      </c>
+      <c r="H615" s="6" t="s">
+        <v>658</v>
+      </c>
+      <c r="I615" s="6" t="s">
+        <v>886</v>
+      </c>
+      <c r="J615" s="6" t="s">
+        <v>1091</v>
+      </c>
+      <c r="K615" s="6" t="s">
+        <v>1141</v>
+      </c>
+      <c r="L615" s="6" t="s">
+        <v>1153</v>
+      </c>
+      <c r="M615" s="8">
+        <v>181</v>
+      </c>
+      <c r="N615" s="8">
+        <v>2050000</v>
+      </c>
+      <c r="O615" s="8">
+        <v>371050000</v>
+      </c>
+      <c r="P615" s="6" t="s">
+        <v>1170</v>
+      </c>
+      <c r="Q615" s="7">
+        <v>45771</v>
+      </c>
+      <c r="R615" s="6" t="s">
+        <v>1178</v>
+      </c>
+      <c r="S615" s="6" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="616" spans="1:19" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A616" s="6" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B616" s="7">
+        <v>45710</v>
+      </c>
+      <c r="C616" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="D616" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="E616" s="6" t="s">
+        <v>586</v>
+      </c>
+      <c r="F616" s="6" t="s">
+        <v>589</v>
+      </c>
+      <c r="G616" s="6" t="s">
+        <v>598</v>
+      </c>
+      <c r="H616" s="6" t="s">
+        <v>629</v>
+      </c>
+      <c r="I616" s="6" t="s">
+        <v>857</v>
+      </c>
+      <c r="J616" s="6" t="s">
+        <v>1093</v>
+      </c>
+      <c r="K616" s="6" t="s">
+        <v>1141</v>
+      </c>
+      <c r="L616" s="6" t="s">
+        <v>1153</v>
+      </c>
+      <c r="M616" s="8">
+        <v>33</v>
+      </c>
+      <c r="N616" s="8">
+        <v>2170000</v>
+      </c>
+      <c r="O616" s="8">
+        <v>71610000</v>
+      </c>
+      <c r="P616" s="6" t="s">
+        <v>1170</v>
+      </c>
+      <c r="Q616" s="7">
+        <v>45712</v>
+      </c>
+      <c r="R616" s="6" t="s">
+        <v>1178</v>
+      </c>
+      <c r="S616" s="6" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="617" spans="1:19" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A617" s="6" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B617" s="7">
+        <v>45712</v>
+      </c>
+      <c r="C617" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="D617" s="6" t="s">
+        <v>519</v>
+      </c>
+      <c r="E617" s="6" t="s">
+        <v>586</v>
+      </c>
+      <c r="F617" s="6" t="s">
+        <v>589</v>
+      </c>
+      <c r="G617" s="6" t="s">
+        <v>594</v>
+      </c>
+      <c r="H617" s="6" t="s">
+        <v>626</v>
+      </c>
+      <c r="I617" s="6" t="s">
+        <v>854</v>
+      </c>
+      <c r="J617" s="6" t="s">
+        <v>1091</v>
+      </c>
+      <c r="K617" s="6" t="s">
+        <v>1141</v>
+      </c>
+      <c r="L617" s="6" t="s">
+        <v>1152</v>
+      </c>
+      <c r="M617" s="8">
+        <v>56</v>
+      </c>
+      <c r="N617" s="8">
+        <v>2085000</v>
+      </c>
+      <c r="O617" s="8">
+        <v>116760000</v>
+      </c>
+      <c r="P617" s="6" t="s">
+        <v>1170</v>
+      </c>
+      <c r="Q617" s="7">
+        <v>45707</v>
+      </c>
+      <c r="R617" s="6" t="s">
+        <v>1178</v>
+      </c>
+      <c r="S617" s="6" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="618" spans="1:19" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A618" s="6" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B618" s="7">
+        <v>45712</v>
+      </c>
+      <c r="C618" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="D618" s="6" t="s">
+        <v>519</v>
+      </c>
+      <c r="E618" s="6" t="s">
+        <v>586</v>
+      </c>
+      <c r="F618" s="6" t="s">
+        <v>589</v>
+      </c>
+      <c r="G618" s="6" t="s">
+        <v>594</v>
+      </c>
+      <c r="H618" s="6" t="s">
+        <v>626</v>
+      </c>
+      <c r="I618" s="6" t="s">
+        <v>854</v>
+      </c>
+      <c r="J618" s="6" t="s">
+        <v>1091</v>
+      </c>
+      <c r="K618" s="6" t="s">
+        <v>1141</v>
+      </c>
+      <c r="L618" s="6" t="s">
+        <v>1152</v>
+      </c>
+      <c r="M618" s="8">
+        <v>245</v>
+      </c>
+      <c r="N618" s="8">
+        <v>1950000</v>
+      </c>
+      <c r="O618" s="8">
+        <v>477750000</v>
+      </c>
+      <c r="P618" s="6" t="s">
+        <v>1170</v>
+      </c>
+      <c r="Q618" s="7">
+        <v>45707</v>
+      </c>
+      <c r="R618" s="6" t="s">
+        <v>1178</v>
+      </c>
+      <c r="S618" s="6" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="619" spans="1:19" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A619" s="6" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B619" s="7">
+        <v>45698</v>
+      </c>
+      <c r="C619" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="D619" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="E619" s="6" t="s">
+        <v>586</v>
+      </c>
+      <c r="F619" s="6" t="s">
+        <v>589</v>
+      </c>
+      <c r="G619" s="6" t="s">
+        <v>596</v>
+      </c>
+      <c r="H619" s="6" t="s">
+        <v>626</v>
+      </c>
+      <c r="I619" s="6" t="s">
+        <v>854</v>
+      </c>
+      <c r="J619" s="6" t="s">
+        <v>1091</v>
+      </c>
+      <c r="K619" s="6" t="s">
+        <v>1141</v>
+      </c>
+      <c r="L619" s="6" t="s">
+        <v>1152</v>
+      </c>
+      <c r="M619" s="8">
+        <v>901</v>
+      </c>
+      <c r="N619" s="8">
+        <v>1528378</v>
+      </c>
+      <c r="O619" s="8">
+        <v>1377068578</v>
+      </c>
+      <c r="P619" s="6" t="s">
+        <v>1170</v>
+      </c>
+      <c r="Q619" s="7">
+        <v>45703</v>
+      </c>
+      <c r="R619" s="6" t="s">
+        <v>1178</v>
+      </c>
+      <c r="S619" s="6" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="620" spans="1:19" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A620" s="6" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B620" s="7">
+        <v>45722</v>
+      </c>
+      <c r="C620" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="D620" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="E620" s="6" t="s">
+        <v>586</v>
+      </c>
+      <c r="F620" s="6" t="s">
+        <v>589</v>
+      </c>
+      <c r="G620" s="6" t="s">
+        <v>596</v>
+      </c>
+      <c r="H620" s="6" t="s">
+        <v>656</v>
+      </c>
+      <c r="I620" s="6" t="s">
+        <v>884</v>
+      </c>
+      <c r="J620" s="6" t="s">
+        <v>1097</v>
+      </c>
+      <c r="K620" s="6" t="s">
+        <v>1145</v>
+      </c>
+      <c r="L620" s="6" t="s">
+        <v>1157</v>
+      </c>
+      <c r="M620" s="8">
+        <v>5</v>
+      </c>
+      <c r="N620" s="8">
+        <v>4185000</v>
+      </c>
+      <c r="O620" s="8">
+        <v>20925000</v>
+      </c>
+      <c r="P620" s="6" t="s">
+        <v>1170</v>
+      </c>
+      <c r="Q620" s="7">
+        <v>45724</v>
+      </c>
+      <c r="R620" s="6" t="s">
+        <v>1178</v>
+      </c>
+      <c r="S620" s="6" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="621" spans="1:19" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A621" s="6" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B621" s="7">
+        <v>45722</v>
+      </c>
+      <c r="C621" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="D621" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="E621" s="6" t="s">
+        <v>586</v>
+      </c>
+      <c r="F621" s="6" t="s">
+        <v>589</v>
+      </c>
+      <c r="G621" s="6" t="s">
+        <v>596</v>
+      </c>
+      <c r="H621" s="6" t="s">
+        <v>703</v>
+      </c>
+      <c r="I621" s="6" t="s">
+        <v>1199</v>
+      </c>
+      <c r="J621" s="6" t="s">
+        <v>1111</v>
+      </c>
+      <c r="K621" s="6" t="s">
+        <v>1142</v>
+      </c>
+      <c r="L621" s="6" t="s">
+        <v>1157</v>
+      </c>
+      <c r="M621" s="8">
+        <v>2</v>
+      </c>
+      <c r="N621" s="8">
+        <v>2220000</v>
+      </c>
+      <c r="O621" s="8">
+        <v>4440000</v>
+      </c>
+      <c r="P621" s="6" t="s">
+        <v>1170</v>
+      </c>
+      <c r="Q621" s="7">
+        <v>45724</v>
+      </c>
+      <c r="R621" s="6" t="s">
+        <v>1178</v>
+      </c>
+      <c r="S621" s="6" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="622" spans="1:19" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A622" s="6" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B622" s="7">
+        <v>45722</v>
+      </c>
+      <c r="C622" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="D622" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="E622" s="6" t="s">
+        <v>586</v>
+      </c>
+      <c r="F622" s="6" t="s">
+        <v>589</v>
+      </c>
+      <c r="G622" s="6" t="s">
+        <v>596</v>
+      </c>
+      <c r="H622" s="6" t="s">
+        <v>704</v>
+      </c>
+      <c r="I622" s="6" t="s">
+        <v>1200</v>
+      </c>
+      <c r="J622" s="6" t="s">
+        <v>1112</v>
+      </c>
+      <c r="K622" s="6" t="s">
+        <v>1141</v>
+      </c>
+      <c r="L622" s="6" t="s">
+        <v>1157</v>
+      </c>
+      <c r="M622" s="8">
+        <v>2</v>
+      </c>
+      <c r="N622" s="8">
+        <v>2790000</v>
+      </c>
+      <c r="O622" s="8">
+        <v>5580000</v>
+      </c>
+      <c r="P622" s="6" t="s">
+        <v>1170</v>
+      </c>
+      <c r="Q622" s="7">
+        <v>45724</v>
+      </c>
+      <c r="R622" s="6" t="s">
+        <v>1178</v>
+      </c>
+      <c r="S622" s="6" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="623" spans="1:19" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A623" s="6" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B623" s="7">
+        <v>45722</v>
+      </c>
+      <c r="C623" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="D623" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="E623" s="6" t="s">
+        <v>586</v>
+      </c>
+      <c r="F623" s="6" t="s">
+        <v>589</v>
+      </c>
+      <c r="G623" s="6" t="s">
+        <v>596</v>
+      </c>
+      <c r="H623" s="6" t="s">
+        <v>673</v>
+      </c>
+      <c r="I623" s="6" t="s">
+        <v>934</v>
+      </c>
+      <c r="J623" s="6" t="s">
+        <v>1110</v>
+      </c>
+      <c r="K623" s="6" t="s">
+        <v>1147</v>
+      </c>
+      <c r="L623" s="6" t="s">
+        <v>1157</v>
+      </c>
+      <c r="M623" s="8">
+        <v>1</v>
+      </c>
+      <c r="N623" s="8">
+        <v>4185000</v>
+      </c>
+      <c r="O623" s="8">
+        <v>4185000</v>
+      </c>
+      <c r="P623" s="6" t="s">
+        <v>1170</v>
+      </c>
+      <c r="Q623" s="7">
+        <v>45724</v>
+      </c>
+      <c r="R623" s="6" t="s">
+        <v>1178</v>
+      </c>
+      <c r="S623" s="6" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="624" spans="1:19" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A624" s="6" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B624" s="7">
+        <v>45722</v>
+      </c>
+      <c r="C624" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="D624" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="E624" s="6" t="s">
+        <v>586</v>
+      </c>
+      <c r="F624" s="6" t="s">
+        <v>589</v>
+      </c>
+      <c r="G624" s="6" t="s">
+        <v>596</v>
+      </c>
+      <c r="H624" s="6" t="s">
+        <v>769</v>
+      </c>
+      <c r="I624" s="6" t="s">
+        <v>1004</v>
+      </c>
+      <c r="J624" s="6" t="s">
+        <v>1129</v>
+      </c>
+      <c r="K624" s="6" t="s">
+        <v>1142</v>
+      </c>
+      <c r="L624" s="6" t="s">
+        <v>1157</v>
+      </c>
+      <c r="M624" s="8">
+        <v>3</v>
+      </c>
+      <c r="N624" s="8">
+        <v>25086000</v>
+      </c>
+      <c r="O624" s="8">
+        <v>75258000</v>
+      </c>
+      <c r="P624" s="6" t="s">
+        <v>1170</v>
+      </c>
+      <c r="Q624" s="7">
+        <v>45724</v>
+      </c>
+      <c r="R624" s="6" t="s">
+        <v>1178</v>
+      </c>
+      <c r="S624" s="6" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="625" spans="1:19" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A625" s="6" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B625" s="7">
+        <v>45694</v>
+      </c>
+      <c r="C625" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="D625" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="E625" s="6" t="s">
+        <v>586</v>
+      </c>
+      <c r="F625" s="6" t="s">
+        <v>589</v>
+      </c>
+      <c r="G625" s="6" t="s">
+        <v>596</v>
+      </c>
+      <c r="H625" s="6" t="s">
+        <v>658</v>
+      </c>
+      <c r="I625" s="6" t="s">
+        <v>886</v>
+      </c>
+      <c r="J625" s="6" t="s">
+        <v>1091</v>
+      </c>
+      <c r="K625" s="6" t="s">
+        <v>1141</v>
+      </c>
+      <c r="L625" s="6" t="s">
+        <v>1152</v>
+      </c>
+      <c r="M625" s="8">
+        <v>6</v>
+      </c>
+      <c r="N625" s="8">
+        <v>2097297</v>
+      </c>
+      <c r="O625" s="8">
+        <v>12583782</v>
+      </c>
+      <c r="P625" s="6" t="s">
+        <v>1170</v>
+      </c>
+      <c r="Q625" s="7">
+        <v>45695</v>
+      </c>
+      <c r="R625" s="6" t="s">
+        <v>1178</v>
+      </c>
+      <c r="S625" s="6" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="626" spans="1:19" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A626" s="6" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B626" s="7">
+        <v>45697</v>
+      </c>
+      <c r="C626" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="D626" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="E626" s="6" t="s">
+        <v>586</v>
+      </c>
+      <c r="F626" s="6" t="s">
+        <v>589</v>
+      </c>
+      <c r="G626" s="6" t="s">
+        <v>596</v>
+      </c>
+      <c r="H626" s="6" t="s">
+        <v>689</v>
+      </c>
+      <c r="I626" s="6" t="s">
+        <v>917</v>
+      </c>
+      <c r="J626" s="6" t="s">
+        <v>1089</v>
+      </c>
+      <c r="K626" s="6" t="s">
+        <v>1141</v>
+      </c>
+      <c r="L626" s="6" t="s">
+        <v>1150</v>
+      </c>
+      <c r="M626" s="8">
+        <v>1</v>
+      </c>
+      <c r="N626" s="8">
+        <v>884500</v>
+      </c>
+      <c r="O626" s="8">
+        <v>884500</v>
+      </c>
+      <c r="P626" s="6" t="s">
+        <v>1170</v>
+      </c>
+      <c r="Q626" s="7">
+        <v>45698</v>
+      </c>
+      <c r="R626" s="6" t="s">
+        <v>1178</v>
+      </c>
+      <c r="S626" s="6" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="627" spans="1:19" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A627" s="6" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B627" s="7">
+        <v>45698</v>
+      </c>
+      <c r="C627" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="D627" s="6" t="s">
+        <v>514</v>
+      </c>
+      <c r="E627" s="6" t="s">
+        <v>588</v>
+      </c>
+      <c r="F627" s="6" t="s">
+        <v>589</v>
+      </c>
+      <c r="G627" s="6" t="s">
+        <v>604</v>
+      </c>
+      <c r="H627" s="6" t="s">
+        <v>754</v>
+      </c>
+      <c r="I627" s="6" t="s">
+        <v>988</v>
+      </c>
+      <c r="J627" s="6" t="s">
+        <v>1091</v>
+      </c>
+      <c r="K627" s="6" t="s">
+        <v>1141</v>
+      </c>
+      <c r="L627" s="6" t="s">
+        <v>1150</v>
+      </c>
+      <c r="M627" s="8">
+        <v>3</v>
+      </c>
+      <c r="N627" s="8">
+        <v>2129640</v>
+      </c>
+      <c r="O627" s="8">
+        <v>6388920</v>
+      </c>
+      <c r="P627" s="6" t="s">
+        <v>1170</v>
+      </c>
+      <c r="Q627" s="7">
+        <v>45700</v>
+      </c>
+      <c r="R627" s="6" t="s">
+        <v>1178</v>
+      </c>
+      <c r="S627" s="6" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="628" spans="1:19" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A628" s="6" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B628" s="7">
+        <v>45684</v>
+      </c>
+      <c r="C628" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="D628" s="6" t="s">
+        <v>534</v>
+      </c>
+      <c r="E628" s="6" t="s">
+        <v>586</v>
+      </c>
+      <c r="F628" s="6" t="s">
+        <v>589</v>
+      </c>
+      <c r="G628" s="6" t="s">
+        <v>604</v>
+      </c>
+      <c r="H628" s="6" t="s">
+        <v>658</v>
+      </c>
+      <c r="I628" s="6" t="s">
+        <v>886</v>
+      </c>
+      <c r="J628" s="6" t="s">
+        <v>1091</v>
+      </c>
+      <c r="K628" s="6" t="s">
+        <v>1141</v>
+      </c>
+      <c r="L628" s="6" t="s">
+        <v>1152</v>
+      </c>
+      <c r="M628" s="8">
+        <v>1</v>
+      </c>
+      <c r="N628" s="8">
+        <v>1747748</v>
+      </c>
+      <c r="O628" s="8">
+        <v>1747748</v>
+      </c>
+      <c r="P628" s="6" t="s">
+        <v>1170</v>
+      </c>
+      <c r="Q628" s="7">
+        <v>45685</v>
+      </c>
+      <c r="R628" s="6" t="s">
+        <v>1178</v>
+      </c>
+      <c r="S628" s="6" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="629" spans="1:19" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A629" s="6" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B629" s="7">
+        <v>45683</v>
+      </c>
+      <c r="C629" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="D629" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="E629" s="6" t="s">
+        <v>586</v>
+      </c>
+      <c r="F629" s="6" t="s">
+        <v>589</v>
+      </c>
+      <c r="G629" s="6" t="s">
+        <v>596</v>
+      </c>
+      <c r="H629" s="6" t="s">
+        <v>775</v>
+      </c>
+      <c r="I629" s="6" t="s">
+        <v>1010</v>
+      </c>
+      <c r="J629" s="6" t="s">
+        <v>1089</v>
+      </c>
+      <c r="K629" s="6" t="s">
+        <v>1141</v>
+      </c>
+      <c r="L629" s="6" t="s">
+        <v>1164</v>
+      </c>
+      <c r="M629" s="8">
+        <v>9</v>
+      </c>
+      <c r="N629" s="8">
+        <v>1655856</v>
+      </c>
+      <c r="O629" s="8">
+        <v>14902704</v>
+      </c>
+      <c r="P629" s="6" t="s">
+        <v>1170</v>
+      </c>
+      <c r="Q629" s="7">
+        <v>45685</v>
+      </c>
+      <c r="R629" s="6" t="s">
+        <v>1178</v>
+      </c>
+      <c r="S629" s="6" t="s">
+        <v>1182</v>
       </c>
     </row>
   </sheetData>
